--- a/src/main/resources/观众统计表07.xlsx
+++ b/src/main/resources/观众统计表07.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="狂神观众统计表" r:id="rId3" sheetId="1"/>
+    <sheet name="观众统计表" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -20,7 +20,7 @@
     <t>统计时间</t>
   </si>
   <si>
-    <t>2022-11-05 17:58:07</t>
+    <t>2022-11-06 11:21:45</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
